--- a/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>PRFX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,8 +712,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +744,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,26 +824,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,26 +963,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,8 +993,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,17 +1005,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,17 +1051,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,8 +1071,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,26 +1135,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1167,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,26 +1231,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,26 +1263,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,17 +1435,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,26 +1455,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,26 +1519,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,31 +1551,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,20 +1618,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1680,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,19 +1744,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1677,20 +1776,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,19 +1840,22 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1764,8 +1872,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,17 +1968,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2032,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,46 +2094,50 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>6200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,19 +2156,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2051,19 +2188,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+      <c r="F60" s="3">
+        <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2080,8 +2220,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2089,11 +2232,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>4900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2109,17 +2252,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2380,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,19 +2490,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>6600</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2554,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11600</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2682,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11500</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2746,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,26 +2783,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2831,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,20 +3021,23 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3069,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,20 +3337,23 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="D100" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3123,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,19 +3401,22 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3179,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>PRFX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,66 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,8 +755,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,8 +793,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +961,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,40 +1016,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,31 +1065,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1051,22 +1119,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-300</v>
       </c>
       <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-200</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1074,19 +1142,25 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1106,8 +1180,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,31 +1218,37 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-800</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1170,8 +1256,14 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,31 +1332,37 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-800</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1266,40 +1370,52 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1435,22 +1575,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>300</v>
       </c>
       <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1458,40 +1598,52 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,26 +1791,28 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F41" s="3">
         <v>19400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1825,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,8 +1863,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1715,8 +1901,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,25 +1939,31 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1779,26 +1977,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F46" s="3">
         <v>21300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +2015,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,16 +2053,22 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -1860,8 +2076,8 @@
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1875,8 +2091,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,23 +2205,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,26 +2281,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F54" s="3">
         <v>21400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,19 +2355,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>200</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2121,29 +2383,35 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>6200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2159,25 +2427,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2191,25 +2465,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>0</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2223,8 +2503,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2235,14 +2521,14 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>4900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2255,8 +2541,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2264,14 +2556,14 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,26 +2693,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2731,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2502,17 +2838,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>6600</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>6600</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2525,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,26 +2899,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2937,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,26 +3051,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F76" s="3">
         <v>20400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-12200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-11500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +3089,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,19 +3228,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2858,14 +3256,20 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,26 +3452,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3490,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,19 +3510,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3096,14 +3538,20 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,16 +3620,22 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3183,8 +3643,8 @@
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3192,14 +3652,20 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,26 +3826,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5600</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3372,8 +3864,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,25 +3902,31 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3434,6 +3938,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>PRFX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,55 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,8 +723,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,8 +764,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,26 +875,26 @@
         <v>600</v>
       </c>
       <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -891,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,8 +1082,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,26 +1094,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1142,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,20 +1158,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,8 +1181,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,14 +1193,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,35 +1263,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,31 +1304,34 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1300,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1376,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1632,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1581,20 +1650,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1604,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E41" s="3">
         <v>18300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1958,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +1999,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,28 +2040,31 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="3">
         <v>2000</v>
       </c>
       <c r="F45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1983,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,13 +2163,16 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2073,14 +2180,14 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2097,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2225,12 +2344,12 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E54" s="3">
         <v>20300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,23 +2486,24 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,14 +2519,17 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2409,12 +2542,12 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>6200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,28 +2566,31 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2471,28 +2607,31 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2509,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2527,11 +2669,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>4900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,8 +2689,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2562,11 +2707,11 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
+        <v>200</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>6600</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2867,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3075,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E76" s="3">
         <v>19500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-11500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3176,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3214,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3244,8 +3442,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3262,14 +3460,17 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,29 +3671,32 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3496,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3526,8 +3746,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3544,14 +3764,17 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3852,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3640,14 +3869,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3658,14 +3887,17 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,29 +4074,32 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>5600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,28 +4156,31 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3944,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>PRFX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,77 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,8 +775,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +822,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +892,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +982,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,49 +1096,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1800</v>
       </c>
       <c r="F17" s="3">
         <v>1700</v>
       </c>
       <c r="G17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,40 +1154,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F18" s="3">
         <v>-1700</v>
       </c>
       <c r="G18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1209,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1161,22 +1229,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-300</v>
       </c>
       <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-200</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1252,14 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,20 +1267,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F21" s="3">
         <v>-1700</v>
       </c>
       <c r="G21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1299,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,40 +1346,46 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1800</v>
       </c>
       <c r="F23" s="3">
         <v>-1700</v>
       </c>
       <c r="G23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-800</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-400</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1307,19 +1393,25 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1333,11 +1425,11 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1348,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,40 +1487,46 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1800</v>
       </c>
       <c r="F26" s="3">
         <v>-1700</v>
       </c>
       <c r="G26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-800</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-400</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1430,49 +1534,61 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1800</v>
       </c>
       <c r="F27" s="3">
         <v>-1700</v>
       </c>
       <c r="G27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1769,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1653,22 +1793,22 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>300</v>
       </c>
       <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>200</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1676,49 +1816,61 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1800</v>
       </c>
       <c r="F33" s="3">
         <v>-1700</v>
       </c>
       <c r="G33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1800</v>
       </c>
       <c r="F35" s="3">
         <v>-1700</v>
       </c>
       <c r="G35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,35 +2051,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F41" s="3">
         <v>16500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>18300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>17800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>19400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2094,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,8 +2141,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2002,8 +2188,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,34 +2235,40 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2084,35 +2282,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F46" s="3">
         <v>19000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>20300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>19800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>21300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2329,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,8 +2376,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2175,16 +2391,16 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2192,8 +2408,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2207,8 +2423,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2347,15 +2587,15 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,35 +2658,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F54" s="3">
         <v>19100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>20300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>19800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>21400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2705,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,16 +2747,18 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2504,11 +2766,11 @@
       <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2522,14 +2784,20 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2545,15 +2813,15 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>6200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,34 +2837,40 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2610,34 +2884,40 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>800</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2651,8 +2931,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2672,14 +2958,14 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>4900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2692,8 +2978,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2710,14 +3002,14 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
+        <v>200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +3025,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,35 +3166,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3213,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,17 +3350,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>6600</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>6600</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,35 +3420,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-22000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-20200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-18500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3467,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,35 +3608,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F76" s="3">
         <v>18100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>19500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>19000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>20400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-12200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-11500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3655,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1800</v>
       </c>
       <c r="F81" s="3">
         <v>-1700</v>
       </c>
       <c r="G81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3445,11 +3843,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3463,14 +3861,20 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,35 +4102,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +4149,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,16 +4172,18 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3749,11 +4191,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3767,14 +4209,20 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,8 +4309,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3872,8 +4332,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3881,8 +4341,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3890,14 +4350,20 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,35 +4563,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,8 +4610,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,34 +4657,40 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4198,6 +4702,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>PRFX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,67 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -734,8 +735,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,44 +907,45 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
         <v>700</v>
       </c>
       <c r="F12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G12" s="3">
         <v>600</v>
       </c>
       <c r="H12" s="3">
+        <v>600</v>
+      </c>
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,44 +1124,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1700</v>
       </c>
       <c r="F17" s="3">
         <v>1700</v>
       </c>
       <c r="G17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1172,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,35 +1184,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F18" s="3">
         <v>-1700</v>
       </c>
       <c r="G18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1235,20 +1269,20 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,23 +1304,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F21" s="3">
         <v>-1700</v>
       </c>
       <c r="G21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,44 +1392,47 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1700</v>
       </c>
       <c r="F23" s="3">
         <v>-1700</v>
       </c>
       <c r="G23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1399,8 +1442,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1410,11 +1456,11 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1431,8 +1477,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,44 +1542,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1700</v>
       </c>
       <c r="F26" s="3">
         <v>-1700</v>
       </c>
       <c r="G26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1540,44 +1592,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1700</v>
       </c>
       <c r="F27" s="3">
         <v>-1700</v>
       </c>
       <c r="G27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1799,20 +1869,20 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1822,44 +1892,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1700</v>
       </c>
       <c r="F33" s="3">
         <v>-1700</v>
       </c>
       <c r="G33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,44 +1992,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1700</v>
       </c>
       <c r="F35" s="3">
         <v>-1700</v>
       </c>
       <c r="G35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,49 +2042,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2015,8 +2097,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E41" s="3">
         <v>13800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,37 +2337,40 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2000</v>
       </c>
       <c r="H45" s="3">
         <v>2000</v>
       </c>
       <c r="I45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E46" s="3">
         <v>15900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,13 +2487,16 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2397,7 +2505,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2405,14 +2513,14 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2593,12 +2713,12 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E54" s="3">
         <v>16000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,32 +2879,33 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2790,14 +2921,17 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2819,12 +2953,12 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>6200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,37 +2977,40 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2890,37 +3027,40 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>800</v>
       </c>
       <c r="F60" s="3">
         <v>800</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
       </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6300</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2964,11 +3107,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>4900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3008,11 +3154,11 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1000</v>
       </c>
       <c r="F66" s="3">
         <v>1000</v>
       </c>
       <c r="G66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3356,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>6600</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E76" s="3">
         <v>15200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-11500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,49 +3897,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3760,44 +3952,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1700</v>
       </c>
       <c r="F81" s="3">
         <v>-1700</v>
       </c>
       <c r="G81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3849,8 +4048,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3867,14 +4066,17 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,38 +4322,41 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4185,8 +4406,8 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4197,8 +4418,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4215,14 +4436,17 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,13 +4542,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4338,14 +4568,14 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4356,14 +4586,17 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4580,27 +4826,27 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,37 +4912,40 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4708,6 +4960,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>PRFX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,88 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,8 +795,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +851,14 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +907,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +933,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1041,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1097,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1153,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1176,66 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1800</v>
       </c>
       <c r="I17" s="3">
         <v>1700</v>
       </c>
       <c r="J17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1243,55 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1800</v>
       </c>
       <c r="I18" s="3">
         <v>-1700</v>
       </c>
       <c r="J18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1310,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1272,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-300</v>
       </c>
       <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-200</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1295,8 +1362,14 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,29 +1377,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1800</v>
       </c>
       <c r="I21" s="3">
         <v>-1700</v>
       </c>
       <c r="J21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,8 +1418,14 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,49 +1474,55 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1800</v>
       </c>
       <c r="I23" s="3">
         <v>-1700</v>
       </c>
       <c r="J23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-800</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-400</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1445,28 +1530,34 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1480,11 +1571,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1495,8 +1586,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,49 +1642,55 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1800</v>
       </c>
       <c r="I26" s="3">
         <v>-1700</v>
       </c>
       <c r="J26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-800</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-400</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1595,58 +1698,70 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1800</v>
       </c>
       <c r="I27" s="3">
         <v>-1700</v>
       </c>
       <c r="J27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1810,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1866,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1922,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1978,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1872,22 +2011,22 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>300</v>
       </c>
       <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>200</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1895,58 +2034,70 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1800</v>
       </c>
       <c r="I33" s="3">
         <v>-1700</v>
       </c>
       <c r="J33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2146,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1800</v>
       </c>
       <c r="I35" s="3">
         <v>-1700</v>
       </c>
       <c r="J35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2289,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,44 +2311,46 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F41" s="3">
         <v>6900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>16500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>17800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>19400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2363,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2419,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2475,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,43 +2531,49 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F45" s="3">
         <v>7900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2390,44 +2587,50 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F46" s="3">
         <v>14800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>15900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>17700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>19000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>20300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>19800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>21300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2643,14 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2699,14 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,25 +2714,25 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2525,8 +2740,8 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2540,8 +2755,14 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2811,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2867,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2923,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2979,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,44 +3035,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F54" s="3">
         <v>14900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>17700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>19100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>20300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>19800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +3091,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3117,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,25 +3139,27 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2906,11 +3167,11 @@
       <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>200</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2924,47 +3185,53 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>6200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,43 +3247,49 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -3030,43 +3303,49 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6300</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
+      <c r="N60" s="3">
+        <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
@@ -3080,8 +3359,14 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3110,14 +3395,14 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>4900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3415,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3157,14 +3448,14 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3471,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3527,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3583,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,44 +3639,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3695,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3721,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3773,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3829,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,17 +3862,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>6600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>6600</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3885,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,44 +3941,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-27200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-25400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-20200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-18500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3997,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4053,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4109,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,44 +4165,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F76" s="3">
         <v>13400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>15200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>18100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>19500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>19000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>20400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-12200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-11500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4221,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4277,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1800</v>
       </c>
       <c r="I81" s="3">
         <v>-1700</v>
       </c>
       <c r="J81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4420,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4051,11 +4448,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -4069,14 +4466,20 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4528,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4584,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4640,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4696,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,44 +4752,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4375,8 +4808,14 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,19 +4834,21 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4421,11 +4862,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4439,14 +4880,20 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4942,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,20 +4998,26 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4571,8 +5030,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4580,8 +5039,8 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4589,14 +5048,20 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5080,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5132,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5188,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5244,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5300,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4829,30 +5320,30 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4865,8 +5356,14 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,43 +5412,49 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -4963,6 +5466,12 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>PRFX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,78 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,8 +746,11 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,53 +948,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>1200</v>
       </c>
       <c r="E12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>700</v>
       </c>
       <c r="H12" s="3">
         <v>700</v>
       </c>
       <c r="I12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J12" s="3">
         <v>600</v>
       </c>
       <c r="K12" s="3">
+        <v>600</v>
+      </c>
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,53 +1204,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>2300</v>
       </c>
       <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1700</v>
       </c>
       <c r="I17" s="3">
         <v>1700</v>
       </c>
       <c r="J17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,8 +1261,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,44 +1273,44 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1700</v>
       </c>
       <c r="I18" s="3">
         <v>-1700</v>
       </c>
       <c r="J18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1320,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1324,7 +1358,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1345,20 +1379,20 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1368,8 +1402,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1377,32 +1414,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1700</v>
       </c>
       <c r="I21" s="3">
         <v>-1700</v>
       </c>
       <c r="J21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1424,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,53 +1520,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-2200</v>
       </c>
       <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1700</v>
       </c>
       <c r="I23" s="3">
         <v>-1700</v>
       </c>
       <c r="J23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1536,19 +1579,22 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1556,11 +1602,11 @@
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1577,8 +1623,8 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,53 +1697,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-2200</v>
       </c>
       <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1700</v>
       </c>
       <c r="I26" s="3">
         <v>-1700</v>
       </c>
       <c r="J26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,53 +1756,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-2200</v>
       </c>
       <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1700</v>
       </c>
       <c r="I27" s="3">
         <v>-1700</v>
       </c>
       <c r="J27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1815,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1996,7 +2066,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2017,20 +2087,20 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,53 +2110,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-2200</v>
       </c>
       <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1700</v>
       </c>
       <c r="I33" s="3">
         <v>-1700</v>
       </c>
       <c r="J33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2169,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,53 +2228,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-2200</v>
       </c>
       <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1700</v>
       </c>
       <c r="I35" s="3">
         <v>-1700</v>
       </c>
       <c r="J35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,58 +2287,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2269,8 +2351,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,47 +2399,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,46 +2633,49 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2000</v>
       </c>
       <c r="K45" s="3">
         <v>2000</v>
       </c>
       <c r="L45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2593,47 +2692,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E46" s="3">
         <v>10400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2720,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2729,7 +2837,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2737,14 +2845,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2761,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2955,18 +3075,18 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,47 +3164,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E54" s="3">
         <v>10400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,41 +3271,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3191,14 +3322,17 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3223,18 +3357,18 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>6200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,8 +3387,11 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3262,37 +3399,37 @@
         <v>1000</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -3309,46 +3446,49 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>800</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
       </c>
       <c r="J60" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6300</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
@@ -3365,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3401,11 +3544,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>4900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3421,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3454,11 +3600,11 @@
         <v>200</v>
       </c>
       <c r="M62" s="3">
+        <v>200</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,47 +3800,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1000</v>
       </c>
       <c r="I66" s="3">
         <v>1000</v>
       </c>
       <c r="J66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3868,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>6600</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,47 +4118,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,47 +4354,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-12200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-11500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,58 +4472,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4344,53 +4536,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-2200</v>
       </c>
       <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1700</v>
       </c>
       <c r="I81" s="3">
         <v>-1700</v>
       </c>
       <c r="J81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,8 +4595,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,13 +4620,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4454,8 +4653,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4472,14 +4671,17 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,47 +4972,50 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-2000</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4814,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4868,8 +5089,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4886,14 +5107,17 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5013,19 +5243,19 @@
         <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-6000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5036,14 +5266,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -5054,14 +5284,17 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5326,27 +5572,27 @@
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5362,8 +5608,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,46 +5667,49 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>4000</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K102" s="3">
+        <v>600</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>600</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -5472,6 +5724,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRFX_QTR_FIN.xlsx
@@ -4626,8 +4626,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4980,11 +4980,11 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-2000</v>
       </c>
       <c r="E89" s="3">
-        <v>4500</v>
+        <v>-2000</v>
       </c>
       <c r="F89" s="3">
         <v>-2900</v>
@@ -4993,10 +4993,10 @@
         <v>-900</v>
       </c>
       <c r="H89" s="3">
-        <v>-2700</v>
+        <v>-1600</v>
       </c>
       <c r="I89" s="3">
-        <v>5400</v>
+        <v>-1100</v>
       </c>
       <c r="J89" s="3">
         <v>-1800</v>
@@ -5239,11 +5239,11 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-1000</v>
       </c>
       <c r="E94" s="3">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5622,20 +5622,20 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5675,11 +5675,11 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-3000</v>
       </c>
       <c r="E102" s="3">
-        <v>16500</v>
+        <v>4000</v>
       </c>
       <c r="F102" s="3">
         <v>-2800</v>
@@ -5688,10 +5688,10 @@
         <v>-6900</v>
       </c>
       <c r="H102" s="3">
-        <v>-2700</v>
+        <v>-1600</v>
       </c>
       <c r="I102" s="3">
-        <v>-2000</v>
+        <v>-1100</v>
       </c>
       <c r="J102" s="3">
         <v>-1800</v>
